--- a/unijump.xlsx
+++ b/unijump.xlsx
@@ -391,7 +391,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>-2</v>
       </c>
       <c r="B4" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="B13" s="1">
         <v>138</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>-6</v>
       </c>
       <c r="B16" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,12 +527,12 @@
         <v>-7</v>
       </c>
       <c r="B19" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="B20" s="1">
         <v>126</v>
@@ -540,15 +540,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>125</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>119</v>
@@ -564,15 +564,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="B25" s="1">
         <v>118</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="B26" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -607,23 +607,23 @@
         <v>-15</v>
       </c>
       <c r="B29" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>16</v>
+        <v>-14</v>
       </c>
       <c r="B31" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -647,7 +647,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -671,20 +671,20 @@
         <v>-17</v>
       </c>
       <c r="B37" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1">
         <v>93</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="B41" s="1">
         <v>89</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="B42" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -783,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -823,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -860,7 +860,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="B61" s="1">
         <v>49</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="B62" s="1">
         <v>49</v>
@@ -887,7 +887,7 @@
         <v>35</v>
       </c>
       <c r="B64" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -980,7 +980,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
         <v>34</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>-39</v>
+        <v>37</v>
       </c>
       <c r="B77" s="1">
         <v>34</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>40</v>
+        <v>-39</v>
       </c>
       <c r="B78" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B82" s="1">
         <v>26</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1">
         <v>26</v>
@@ -1068,15 +1068,15 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="B87" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>-40</v>
+        <v>-41</v>
       </c>
       <c r="B88" s="1">
         <v>21</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>-46</v>
+        <v>45</v>
       </c>
       <c r="B89" s="1">
         <v>19</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>45</v>
+        <v>-46</v>
       </c>
       <c r="B90" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1116,7 +1116,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>-45</v>
+        <v>43</v>
       </c>
       <c r="B93" s="1">
         <v>17</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="B94" s="1">
         <v>17</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43</v>
+        <v>-42</v>
       </c>
       <c r="B95" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B101" s="1">
         <v>13</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1">
         <v>13</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>50</v>
+        <v>-54</v>
       </c>
       <c r="B106" s="1">
         <v>11</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>-54</v>
+        <v>50</v>
       </c>
       <c r="B108" s="1">
         <v>11</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>-50</v>
+        <v>-56</v>
       </c>
       <c r="B109" s="1">
         <v>9</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>-56</v>
+        <v>-50</v>
       </c>
       <c r="B110" s="1">
         <v>9</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>-62</v>
+        <v>57</v>
       </c>
       <c r="B118" s="1">
         <v>5</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>57</v>
+        <v>-62</v>
       </c>
       <c r="B119" s="1">
         <v>5</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>67</v>
+        <v>-61</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>-61</v>
+        <v>67</v>
       </c>
       <c r="B124" s="1">
         <v>4</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>-68</v>
+        <v>-65</v>
       </c>
       <c r="B132" s="1">
         <v>2</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>69</v>
+        <v>-68</v>
       </c>
       <c r="B133" s="1">
         <v>2</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>-74</v>
+        <v>69</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>-65</v>
+        <v>-74</v>
       </c>
       <c r="B135" s="1">
         <v>2</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>-80</v>
+        <v>84</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>66</v>
+        <v>-80</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
